--- a/venv/filtreler.xlsx
+++ b/venv/filtreler.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Girisken\PycharmProjects\front&amp;backend\venv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Girisken\Desktop\front&amp;backend\venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF78F4E-90F2-453C-AB8F-F4F16B727294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959B0317-4616-4A84-9E4C-EF4BAA6E9ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="1365" windowWidth="23130" windowHeight="11670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -48,26 +42,26 @@
     <t>Meta</t>
   </si>
   <si>
-    <t>Benzer(Like)</t>
-  </si>
-  <si>
-    <t>Eğitim Adı</t>
-  </si>
-  <si>
-    <t>EGT_EGITIM.ID</t>
-  </si>
-  <si>
-    <t>Ajax Seçim</t>
-  </si>
-  <si>
-    <t>EGT_EGITIM.TANIM</t>
+    <t>Tekli Seçim</t>
+  </si>
+  <si>
+    <t>ComboBox</t>
+  </si>
+  <si>
+    <t>Bordro Türü</t>
+  </si>
+  <si>
+    <t>PER_DIGER_BORDRO_YARDIM.BORDRO_TURU</t>
+  </si>
+  <si>
+    <t>code:PerBordroTuru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +96,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -214,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -231,11 +218,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,7 +504,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G3:G4"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,20 +526,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
